--- a/SuppXLS/Scen_B_IND_Emi_Proc.xlsx
+++ b/SuppXLS/Scen_B_IND_Emi_Proc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCF4D2-C72B-40FE-BB1D-9730C48BF606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EBC119-64C0-4C32-AE93-4F1C3CFDFA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8145" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -110,7 +110,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -140,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="96">
   <si>
     <t>Development</t>
   </si>
@@ -443,6 +442,9 @@
   </si>
   <si>
     <t>Ankita Gaur (UCC, agaur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
   </si>
 </sst>
 </file>
@@ -891,7 +893,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687CDCB0-30F5-418B-8121-F34E0CA561A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,7 +937,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E6DFBCF-440F-45A0-9108-DD716AC84EF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,7 +986,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3354C3-E8E4-4EB3-9222-0070EE112CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1036,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DC9D80-CA5C-460C-B21A-FD700622B113}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,7 +1086,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF1A322-22BF-4ABD-8A3C-E155FB1DB7A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1135,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742A6AA4-D390-4478-9A8D-CC8DDD95E226}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1509,7 +1511,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -5126,10 +5128,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB24379-873C-4F8C-A76D-60FB935DBEAA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:O110"/>
+  <dimension ref="B1:N110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,12 +5140,12 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="12"/>
       <c r="D1" s="15"/>
       <c r="E1" s="12"/>
@@ -5156,17 +5158,15 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="2:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>66</v>
       </c>
@@ -5179,26 +5179,21 @@
       <c r="E3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="14" t="str">
-        <f>IF(Regions!C3&lt;&gt;"",Regions!C3,"*")</f>
-        <v>IE</v>
-      </c>
-      <c r="G3" s="14" t="str">
-        <f>IF(Regions!D3&lt;&gt;"",Regions!D3,"*")</f>
-        <v>National</v>
+      <c r="F3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L3"/>
-    </row>
-    <row r="4" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>71</v>
       </c>
@@ -5208,14 +5203,11 @@
       <c r="F4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
@@ -5225,21 +5217,17 @@
       <c r="F5" s="9">
         <v>117.800046108687</v>
       </c>
-      <c r="G5" s="9">
-        <f>F5</f>
-        <v>117.800046108687</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>73</v>
       </c>
@@ -5249,21 +5237,17 @@
       <c r="F6" s="9">
         <v>110.80311540720299</v>
       </c>
-      <c r="G6" s="9">
-        <f t="shared" ref="G6:G39" si="0">F6</f>
-        <v>110.80311540720299</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
@@ -5273,21 +5257,17 @@
       <c r="F7" s="9">
         <v>126.74335956141699</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" si="0"/>
-        <v>126.74335956141699</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>73</v>
       </c>
@@ -5297,21 +5277,17 @@
       <c r="F8" s="9">
         <v>131.32952614296801</v>
       </c>
-      <c r="G8" s="9">
-        <f t="shared" si="0"/>
-        <v>131.32952614296801</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>73</v>
       </c>
@@ -5321,21 +5297,17 @@
       <c r="F9" s="9">
         <v>133.78292023519899</v>
       </c>
-      <c r="G9" s="9">
-        <f t="shared" si="0"/>
-        <v>133.78292023519899</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
@@ -5345,21 +5317,17 @@
       <c r="F10" s="9">
         <v>130.22967768858501</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="0"/>
-        <v>130.22967768858501</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
@@ -5369,21 +5337,17 @@
       <c r="F11" s="9">
         <v>126.872149955296</v>
       </c>
-      <c r="G11" s="9">
-        <f t="shared" si="0"/>
-        <v>126.872149955296</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>73</v>
       </c>
@@ -5393,21 +5357,17 @@
       <c r="F12" s="9">
         <v>124.572173649753</v>
       </c>
-      <c r="G12" s="9">
-        <f t="shared" si="0"/>
-        <v>124.572173649753</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
@@ -5417,21 +5377,17 @@
       <c r="F13" s="9">
         <v>122.710157691915</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="0"/>
-        <v>122.710157691915</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>73</v>
@@ -5442,21 +5398,17 @@
       <c r="F14" s="9">
         <v>121.183584264556</v>
       </c>
-      <c r="G14" s="9">
-        <f t="shared" si="0"/>
-        <v>121.183584264556</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>73</v>
@@ -5467,21 +5419,17 @@
       <c r="F15" s="9">
         <v>119.89401052824</v>
       </c>
-      <c r="G15" s="9">
-        <f t="shared" si="0"/>
-        <v>119.89401052824</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I15" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="16"/>
       <c r="D16" s="1" t="s">
@@ -5493,21 +5441,17 @@
       <c r="F16" s="9">
         <v>118.610081505191</v>
       </c>
-      <c r="G16" s="9">
-        <f t="shared" si="0"/>
-        <v>118.610081505191</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="17"/>
       <c r="D17" s="1" t="s">
@@ -5519,21 +5463,17 @@
       <c r="F17" s="9">
         <v>117.334875899358</v>
       </c>
-      <c r="G17" s="9">
-        <f t="shared" si="0"/>
-        <v>117.334875899358</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="18"/>
       <c r="D18" s="1" t="s">
@@ -5545,21 +5485,17 @@
       <c r="F18" s="9">
         <v>121.17397734867301</v>
       </c>
-      <c r="G18" s="9">
-        <f t="shared" si="0"/>
-        <v>121.17397734867301</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="11"/>
       <c r="D19" s="1" t="s">
@@ -5571,21 +5507,17 @@
       <c r="F19" s="9">
         <v>116.745861664527</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="0"/>
-        <v>116.745861664527</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="11"/>
       <c r="D20" s="1" t="s">
@@ -5597,21 +5529,17 @@
       <c r="F20" s="9">
         <v>115.60127093743201</v>
       </c>
-      <c r="G20" s="9">
-        <f t="shared" si="0"/>
-        <v>115.60127093743201</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="11"/>
       <c r="D21" s="1" t="s">
@@ -5623,21 +5551,17 @@
       <c r="F21" s="9">
         <v>114.476272392634</v>
       </c>
-      <c r="G21" s="9">
-        <f t="shared" si="0"/>
-        <v>114.476272392634</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="11"/>
       <c r="D22" s="1" t="s">
@@ -5649,21 +5573,17 @@
       <c r="F22" s="9">
         <v>113.30440775510201</v>
       </c>
-      <c r="G22" s="9">
-        <f t="shared" si="0"/>
-        <v>113.30440775510201</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="11"/>
       <c r="D23" s="1" t="s">
@@ -5675,21 +5595,17 @@
       <c r="F23" s="9">
         <v>112.115589608116</v>
       </c>
-      <c r="G23" s="9">
-        <f t="shared" si="0"/>
-        <v>112.115589608116</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="11"/>
       <c r="D24" s="1" t="s">
@@ -5701,21 +5617,17 @@
       <c r="F24" s="9">
         <v>110.90861963304999</v>
       </c>
-      <c r="G24" s="9">
-        <f t="shared" si="0"/>
-        <v>110.90861963304999</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="11"/>
       <c r="D25" s="1" t="s">
@@ -5727,21 +5639,17 @@
       <c r="F25" s="9">
         <v>109.69584548578101</v>
       </c>
-      <c r="G25" s="9">
-        <f t="shared" si="0"/>
-        <v>109.69584548578101</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="1" t="s">
@@ -5753,21 +5661,17 @@
       <c r="F26" s="9">
         <v>108.44802744818701</v>
       </c>
-      <c r="G26" s="9">
-        <f t="shared" si="0"/>
-        <v>108.44802744818701</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="1" t="s">
@@ -5779,21 +5683,17 @@
       <c r="F27" s="9">
         <v>107.187641299863</v>
       </c>
-      <c r="G27" s="9">
-        <f t="shared" si="0"/>
-        <v>107.187641299863</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="11"/>
       <c r="D28" s="1" t="s">
@@ -5805,21 +5705,17 @@
       <c r="F28" s="9">
         <v>183.591010634193</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" si="0"/>
-        <v>183.591010634193</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="11"/>
       <c r="D29" s="1" t="s">
@@ -5831,21 +5727,17 @@
       <c r="F29" s="9">
         <v>155.09733547703999</v>
       </c>
-      <c r="G29" s="9">
-        <f t="shared" si="0"/>
-        <v>155.09733547703999</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="1" t="s">
@@ -5857,21 +5749,17 @@
       <c r="F30" s="9">
         <v>144.91442893232201</v>
       </c>
-      <c r="G30" s="9">
-        <f t="shared" si="0"/>
-        <v>144.91442893232201</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="11"/>
       <c r="D31" s="1" t="s">
@@ -5883,21 +5771,17 @@
       <c r="F31" s="9">
         <v>134.46992341591601</v>
       </c>
-      <c r="G31" s="9">
-        <f t="shared" si="0"/>
-        <v>134.46992341591601</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="11"/>
       <c r="D32" s="1" t="s">
@@ -5909,21 +5793,17 @@
       <c r="F32" s="9">
         <v>134.97499362029001</v>
       </c>
-      <c r="G32" s="9">
-        <f t="shared" si="0"/>
-        <v>134.97499362029001</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I32" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="1" t="s">
@@ -5935,21 +5815,17 @@
       <c r="F33" s="9">
         <v>134.354975759669</v>
       </c>
-      <c r="G33" s="9">
-        <f t="shared" si="0"/>
-        <v>134.354975759669</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I33" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="1" t="s">
@@ -5961,21 +5837,17 @@
       <c r="F34" s="9">
         <v>134.89965049445499</v>
       </c>
-      <c r="G34" s="9">
-        <f t="shared" si="0"/>
-        <v>134.89965049445499</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I34" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="1" t="s">
@@ -5987,21 +5859,17 @@
       <c r="F35" s="9">
         <v>135.918653135402</v>
       </c>
-      <c r="G35" s="9">
-        <f t="shared" si="0"/>
-        <v>135.918653135402</v>
-      </c>
-      <c r="H35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I35" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="1" t="s">
@@ -6013,21 +5881,17 @@
       <c r="F36" s="9">
         <v>136.19291075554901</v>
       </c>
-      <c r="G36" s="9">
-        <f t="shared" si="0"/>
-        <v>136.19291075554901</v>
-      </c>
-      <c r="H36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I36" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="1" t="s">
@@ -6039,21 +5903,17 @@
       <c r="F37" s="9">
         <v>135.166976697395</v>
       </c>
-      <c r="G37" s="9">
-        <f t="shared" si="0"/>
-        <v>135.166976697395</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I37" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="1" t="s">
@@ -6065,21 +5925,17 @@
       <c r="F38" s="9">
         <v>132.740552858683</v>
       </c>
-      <c r="G38" s="9">
-        <f t="shared" si="0"/>
-        <v>132.740552858683</v>
-      </c>
-      <c r="H38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I38" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="22"/>
       <c r="D39" s="10" t="s">
@@ -6091,30 +5947,26 @@
       <c r="F39" s="23">
         <v>129.72050850162699</v>
       </c>
-      <c r="G39" s="23">
-        <f t="shared" si="0"/>
-        <v>129.72050850162699</v>
-      </c>
-      <c r="H39" s="24" t="s">
+      <c r="G39" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="H39" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J39" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I39" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="L40" s="21" t="s">
+      <c r="K40" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C41" s="11"/>
       <c r="D41" s="1" t="s">
         <v>73</v>
@@ -6123,27 +5975,23 @@
         <v>2018</v>
       </c>
       <c r="F41" s="9">
-        <f>F5*(1-$L$41)</f>
+        <f>F5*(1-$K$41)</f>
         <v>8.2460032276080835</v>
       </c>
-      <c r="G41" s="9">
-        <f>F41</f>
-        <v>8.2460032276080835</v>
-      </c>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L41" s="26">
+      <c r="I41" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="26">
         <v>0.93</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C42" s="11"/>
       <c r="D42" s="1" t="s">
         <v>73</v>
@@ -6152,24 +6000,20 @@
         <v>2019</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" ref="F42:F75" si="1">F6*(1-$L$41)</f>
+        <f t="shared" ref="F42:F75" si="0">F6*(1-$K$41)</f>
         <v>7.7562180785042045</v>
       </c>
-      <c r="G42" s="9">
-        <f t="shared" ref="G42:G75" si="2">F42</f>
-        <v>7.7562180785042045</v>
-      </c>
-      <c r="H42" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J42" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I42" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C43" s="11"/>
       <c r="D43" s="1" t="s">
         <v>73</v>
@@ -6178,24 +6022,20 @@
         <v>2020</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.872035169299183</v>
       </c>
-      <c r="G43" s="9">
-        <f t="shared" si="2"/>
-        <v>8.872035169299183</v>
-      </c>
-      <c r="H43" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I43" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C44" s="11"/>
       <c r="D44" s="1" t="s">
         <v>73</v>
@@ -6204,24 +6044,20 @@
         <v>2021</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.1930668300077549</v>
       </c>
-      <c r="G44" s="9">
-        <f t="shared" si="2"/>
-        <v>9.1930668300077549</v>
-      </c>
-      <c r="H44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J44" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I44" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C45" s="11"/>
       <c r="D45" s="1" t="s">
         <v>73</v>
@@ -6230,24 +6066,20 @@
         <v>2022</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.3648044164639224</v>
       </c>
-      <c r="G45" s="9">
-        <f t="shared" si="2"/>
-        <v>9.3648044164639224</v>
-      </c>
-      <c r="H45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J45" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I45" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C46" s="11"/>
       <c r="D46" s="1" t="s">
         <v>73</v>
@@ -6256,24 +6088,20 @@
         <v>2023</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.1160774382009446</v>
       </c>
-      <c r="G46" s="9">
-        <f t="shared" si="2"/>
-        <v>9.1160774382009446</v>
-      </c>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J46" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I46" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C47" s="11"/>
       <c r="D47" s="1" t="s">
         <v>73</v>
@@ -6282,24 +6110,20 @@
         <v>2024</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8810504968707136</v>
       </c>
-      <c r="G47" s="9">
-        <f t="shared" si="2"/>
-        <v>8.8810504968707136</v>
-      </c>
-      <c r="H47" s="8" t="s">
+      <c r="G47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J47" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I47" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C48" s="11"/>
       <c r="D48" s="1" t="s">
         <v>73</v>
@@ -6308,24 +6132,20 @@
         <v>2025</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.7200521554827031</v>
       </c>
-      <c r="G48" s="9">
-        <f t="shared" si="2"/>
-        <v>8.7200521554827031</v>
-      </c>
-      <c r="H48" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J48" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="11"/>
       <c r="D49" s="1" t="s">
         <v>73</v>
@@ -6334,24 +6154,20 @@
         <v>2026</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5897110384340447</v>
       </c>
-      <c r="G49" s="9">
-        <f t="shared" si="2"/>
-        <v>8.5897110384340447</v>
-      </c>
-      <c r="H49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J49" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="11"/>
       <c r="D50" s="1" t="s">
         <v>73</v>
@@ -6360,24 +6176,20 @@
         <v>2027</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4828508985189135</v>
       </c>
-      <c r="G50" s="9">
-        <f t="shared" si="2"/>
-        <v>8.4828508985189135</v>
-      </c>
-      <c r="H50" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="11"/>
       <c r="D51" s="1" t="s">
         <v>73</v>
@@ -6386,24 +6198,20 @@
         <v>2028</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3925807369767949</v>
       </c>
-      <c r="G51" s="9">
-        <f t="shared" si="2"/>
-        <v>8.3925807369767949</v>
-      </c>
-      <c r="H51" s="8" t="s">
+      <c r="G51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J51" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I51" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="11"/>
       <c r="D52" s="1" t="s">
         <v>73</v>
@@ -6412,24 +6220,20 @@
         <v>2029</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3027057053633637</v>
       </c>
-      <c r="G52" s="9">
-        <f t="shared" si="2"/>
-        <v>8.3027057053633637</v>
-      </c>
-      <c r="H52" s="8" t="s">
+      <c r="G52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J52" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="11"/>
       <c r="D53" s="1" t="s">
         <v>73</v>
@@ -6438,24 +6242,20 @@
         <v>2030</v>
       </c>
       <c r="F53" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.2134413129550534</v>
       </c>
-      <c r="G53" s="9">
-        <f t="shared" si="2"/>
-        <v>8.2134413129550534</v>
-      </c>
-      <c r="H53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J53" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>73</v>
       </c>
@@ -6463,24 +6263,20 @@
         <v>2031</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4821784144071053</v>
       </c>
-      <c r="G54" s="9">
-        <f t="shared" si="2"/>
-        <v>8.4821784144071053</v>
-      </c>
-      <c r="H54" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J54" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>73</v>
       </c>
@@ -6488,24 +6284,20 @@
         <v>2032</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1722103165168836</v>
       </c>
-      <c r="G55" s="9">
-        <f t="shared" si="2"/>
-        <v>8.1722103165168836</v>
-      </c>
-      <c r="H55" s="8" t="s">
+      <c r="G55" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J55" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>73</v>
       </c>
@@ -6513,24 +6305,20 @@
         <v>2033</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0920889656202348</v>
       </c>
-      <c r="G56" s="9">
-        <f t="shared" si="2"/>
-        <v>8.0920889656202348</v>
-      </c>
-      <c r="H56" s="8" t="s">
+      <c r="G56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J56" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I56" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
         <v>73</v>
       </c>
@@ -6538,24 +6326,20 @@
         <v>2034</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0133390674843739</v>
       </c>
-      <c r="G57" s="9">
-        <f t="shared" si="2"/>
-        <v>8.0133390674843739</v>
-      </c>
-      <c r="H57" s="8" t="s">
+      <c r="G57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J57" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,24 +6347,20 @@
         <v>2035</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9313085428571348</v>
       </c>
-      <c r="G58" s="9">
-        <f t="shared" si="2"/>
-        <v>7.9313085428571348</v>
-      </c>
-      <c r="H58" s="8" t="s">
+      <c r="G58" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
         <v>73</v>
       </c>
@@ -6588,24 +6368,20 @@
         <v>2036</v>
       </c>
       <c r="F59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.848091272568114</v>
       </c>
-      <c r="G59" s="9">
-        <f t="shared" si="2"/>
-        <v>7.848091272568114</v>
-      </c>
-      <c r="H59" s="8" t="s">
+      <c r="G59" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J59" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I59" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
@@ -6613,24 +6389,20 @@
         <v>2037</v>
       </c>
       <c r="F60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.7636033743134938</v>
       </c>
-      <c r="G60" s="9">
-        <f t="shared" si="2"/>
-        <v>7.7636033743134938</v>
-      </c>
-      <c r="H60" s="8" t="s">
+      <c r="G60" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J60" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
         <v>73</v>
       </c>
@@ -6638,24 +6410,20 @@
         <v>2038</v>
       </c>
       <c r="F61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6787091840046653</v>
       </c>
-      <c r="G61" s="9">
-        <f t="shared" si="2"/>
-        <v>7.6787091840046653</v>
-      </c>
-      <c r="H61" s="8" t="s">
+      <c r="G61" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J61" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I61" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>73</v>
       </c>
@@ -6663,24 +6431,20 @@
         <v>2039</v>
       </c>
       <c r="F62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5913619213730854</v>
       </c>
-      <c r="G62" s="9">
-        <f t="shared" si="2"/>
-        <v>7.5913619213730854</v>
-      </c>
-      <c r="H62" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I62" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D63" s="1" t="s">
         <v>73</v>
       </c>
@@ -6688,24 +6452,20 @@
         <v>2040</v>
       </c>
       <c r="F63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5031348909904052</v>
       </c>
-      <c r="G63" s="9">
-        <f t="shared" si="2"/>
-        <v>7.5031348909904052</v>
-      </c>
-      <c r="H63" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I63" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D64" s="1" t="s">
         <v>73</v>
       </c>
@@ -6713,24 +6473,20 @@
         <v>2045</v>
       </c>
       <c r="F64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.851370744393501</v>
       </c>
-      <c r="G64" s="9">
-        <f t="shared" si="2"/>
-        <v>12.851370744393501</v>
-      </c>
-      <c r="H64" s="8" t="s">
+      <c r="G64" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J64" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I64" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D65" s="1" t="s">
         <v>73</v>
       </c>
@@ -6738,24 +6494,20 @@
         <v>2050</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.856813483392791</v>
       </c>
-      <c r="G65" s="9">
-        <f t="shared" si="2"/>
-        <v>10.856813483392791</v>
-      </c>
-      <c r="H65" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J65" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I65" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D66" s="1" t="s">
         <v>73</v>
       </c>
@@ -6763,24 +6515,20 @@
         <v>2055</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.144010025262533</v>
       </c>
-      <c r="G66" s="9">
-        <f t="shared" si="2"/>
-        <v>10.144010025262533</v>
-      </c>
-      <c r="H66" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J66" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I66" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,24 +6536,20 @@
         <v>2060</v>
       </c>
       <c r="F67" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.4128946391141142</v>
       </c>
-      <c r="G67" s="9">
-        <f t="shared" si="2"/>
-        <v>9.4128946391141142</v>
-      </c>
-      <c r="H67" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J67" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I67" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D68" s="1" t="s">
         <v>73</v>
       </c>
@@ -6813,24 +6557,20 @@
         <v>2065</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.4482495534202933</v>
       </c>
-      <c r="G68" s="9">
-        <f t="shared" si="2"/>
-        <v>9.4482495534202933</v>
-      </c>
-      <c r="H68" s="8" t="s">
+      <c r="G68" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J68" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I68" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D69" s="1" t="s">
         <v>73</v>
       </c>
@@ -6838,24 +6578,20 @@
         <v>2070</v>
       </c>
       <c r="F69" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.4048483031768235</v>
       </c>
-      <c r="G69" s="9">
-        <f t="shared" si="2"/>
-        <v>9.4048483031768235</v>
-      </c>
-      <c r="H69" s="8" t="s">
+      <c r="G69" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J69" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I69" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D70" s="1" t="s">
         <v>73</v>
       </c>
@@ -6863,24 +6599,20 @@
         <v>2075</v>
       </c>
       <c r="F70" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.4429755346118434</v>
       </c>
-      <c r="G70" s="9">
-        <f t="shared" si="2"/>
-        <v>9.4429755346118434</v>
-      </c>
-      <c r="H70" s="8" t="s">
+      <c r="G70" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J70" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I70" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D71" s="1" t="s">
         <v>73</v>
       </c>
@@ -6888,24 +6620,20 @@
         <v>2080</v>
       </c>
       <c r="F71" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5143057194781324</v>
       </c>
-      <c r="G71" s="9">
-        <f t="shared" si="2"/>
-        <v>9.5143057194781324</v>
-      </c>
-      <c r="H71" s="8" t="s">
+      <c r="G71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J71" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I71" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
         <v>73</v>
       </c>
@@ -6913,24 +6641,20 @@
         <v>2085</v>
       </c>
       <c r="F72" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.5335037528884232</v>
       </c>
-      <c r="G72" s="9">
-        <f t="shared" si="2"/>
-        <v>9.5335037528884232</v>
-      </c>
-      <c r="H72" s="8" t="s">
+      <c r="G72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I72" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D73" s="1" t="s">
         <v>73</v>
       </c>
@@ -6938,24 +6662,20 @@
         <v>2090</v>
       </c>
       <c r="F73" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.4616883688176436</v>
       </c>
-      <c r="G73" s="9">
-        <f t="shared" si="2"/>
-        <v>9.4616883688176436</v>
-      </c>
-      <c r="H73" s="8" t="s">
+      <c r="G73" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J73" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I73" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
         <v>73</v>
       </c>
@@ -6963,24 +6683,20 @@
         <v>2095</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.2918387001078031</v>
       </c>
-      <c r="G74" s="9">
-        <f t="shared" si="2"/>
-        <v>9.2918387001078031</v>
-      </c>
-      <c r="H74" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J74" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I74" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
@@ -6990,24 +6706,20 @@
         <v>2100</v>
       </c>
       <c r="F75" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.0804355951138831</v>
       </c>
-      <c r="G75" s="23">
-        <f t="shared" si="2"/>
-        <v>9.0804355951138831</v>
-      </c>
-      <c r="H75" s="24" t="s">
+      <c r="G75" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I75" s="22" t="s">
+      <c r="H75" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="J75" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I75" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D76" s="1" t="s">
         <v>73</v>
       </c>
@@ -7015,24 +6727,20 @@
         <v>2018</v>
       </c>
       <c r="F76" s="9">
-        <f>F5*$L$41</f>
+        <f>F5*$K$41</f>
         <v>109.55404288107891</v>
       </c>
-      <c r="G76" s="9">
-        <f>F76</f>
-        <v>109.55404288107891</v>
-      </c>
-      <c r="H76" s="8" t="s">
+      <c r="G76" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J76" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I76" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D77" s="1" t="s">
         <v>73</v>
       </c>
@@ -7040,24 +6748,20 @@
         <v>2019</v>
       </c>
       <c r="F77" s="9">
-        <f t="shared" ref="F77:F110" si="3">F6*$L$41</f>
+        <f t="shared" ref="F77:F110" si="1">F6*$K$41</f>
         <v>103.04689732869879</v>
       </c>
-      <c r="G77" s="9">
-        <f t="shared" ref="G77:G110" si="4">F77</f>
-        <v>103.04689732869879</v>
-      </c>
-      <c r="H77" s="8" t="s">
+      <c r="G77" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J77" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I77" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D78" s="1" t="s">
         <v>73</v>
       </c>
@@ -7065,24 +6769,20 @@
         <v>2020</v>
       </c>
       <c r="F78" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>117.87132439211781</v>
       </c>
-      <c r="G78" s="9">
-        <f t="shared" si="4"/>
-        <v>117.87132439211781</v>
-      </c>
-      <c r="H78" s="8" t="s">
+      <c r="G78" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J78" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I78" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D79" s="1" t="s">
         <v>73</v>
       </c>
@@ -7090,24 +6790,20 @@
         <v>2021</v>
       </c>
       <c r="F79" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>122.13645931296026</v>
       </c>
-      <c r="G79" s="9">
-        <f t="shared" si="4"/>
-        <v>122.13645931296026</v>
-      </c>
-      <c r="H79" s="8" t="s">
+      <c r="G79" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J79" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I79" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
         <v>73</v>
       </c>
@@ -7115,24 +6811,20 @@
         <v>2022</v>
       </c>
       <c r="F80" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>124.41811581873506</v>
       </c>
-      <c r="G80" s="9">
-        <f t="shared" si="4"/>
-        <v>124.41811581873506</v>
-      </c>
-      <c r="H80" s="8" t="s">
+      <c r="G80" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J80" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I80" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
         <v>73</v>
       </c>
@@ -7140,24 +6832,20 @@
         <v>2023</v>
       </c>
       <c r="F81" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>121.11360025038407</v>
       </c>
-      <c r="G81" s="9">
-        <f t="shared" si="4"/>
-        <v>121.11360025038407</v>
-      </c>
-      <c r="H81" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J81" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I81" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D82" s="1" t="s">
         <v>73</v>
       </c>
@@ -7165,24 +6853,20 @@
         <v>2024</v>
       </c>
       <c r="F82" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>117.99109945842528</v>
       </c>
-      <c r="G82" s="9">
-        <f t="shared" si="4"/>
-        <v>117.99109945842528</v>
-      </c>
-      <c r="H82" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J82" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I82" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="1" t="s">
         <v>73</v>
       </c>
@@ -7190,24 +6874,20 @@
         <v>2025</v>
       </c>
       <c r="F83" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>115.85212149427029</v>
       </c>
-      <c r="G83" s="9">
-        <f t="shared" si="4"/>
-        <v>115.85212149427029</v>
-      </c>
-      <c r="H83" s="8" t="s">
+      <c r="G83" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="H83" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J83" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I83" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
@@ -7215,24 +6895,20 @@
         <v>2026</v>
       </c>
       <c r="F84" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>114.12044665348095</v>
       </c>
-      <c r="G84" s="9">
-        <f t="shared" si="4"/>
-        <v>114.12044665348095</v>
-      </c>
-      <c r="H84" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J84" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I84" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
         <v>73</v>
       </c>
@@ -7240,24 +6916,20 @@
         <v>2027</v>
       </c>
       <c r="F85" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>112.70073336603708</v>
       </c>
-      <c r="G85" s="9">
-        <f t="shared" si="4"/>
-        <v>112.70073336603708</v>
-      </c>
-      <c r="H85" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J85" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I85" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="1" t="s">
         <v>73</v>
       </c>
@@ -7265,24 +6937,20 @@
         <v>2028</v>
       </c>
       <c r="F86" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>111.50142979126321</v>
       </c>
-      <c r="G86" s="9">
-        <f t="shared" si="4"/>
-        <v>111.50142979126321</v>
-      </c>
-      <c r="H86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J86" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I86" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87" s="1" t="s">
         <v>73</v>
       </c>
@@ -7290,24 +6958,20 @@
         <v>2029</v>
       </c>
       <c r="F87" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>110.30737579982764</v>
       </c>
-      <c r="G87" s="9">
-        <f t="shared" si="4"/>
-        <v>110.30737579982764</v>
-      </c>
-      <c r="H87" s="8" t="s">
+      <c r="G87" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J87" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I87" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88" s="1" t="s">
         <v>73</v>
       </c>
@@ -7315,24 +6979,20 @@
         <v>2030</v>
       </c>
       <c r="F88" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>109.12143458640294</v>
       </c>
-      <c r="G88" s="9">
-        <f t="shared" si="4"/>
-        <v>109.12143458640294</v>
-      </c>
-      <c r="H88" s="8" t="s">
+      <c r="G88" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J88" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I88" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D89" s="1" t="s">
         <v>73</v>
       </c>
@@ -7340,24 +7000,20 @@
         <v>2031</v>
       </c>
       <c r="F89" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>112.6917989342659</v>
       </c>
-      <c r="G89" s="9">
-        <f t="shared" si="4"/>
-        <v>112.6917989342659</v>
-      </c>
-      <c r="H89" s="8" t="s">
+      <c r="G89" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J89" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I89" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D90" s="1" t="s">
         <v>73</v>
       </c>
@@ -7365,24 +7021,20 @@
         <v>2032</v>
       </c>
       <c r="F90" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>108.57365134801012</v>
       </c>
-      <c r="G90" s="9">
-        <f t="shared" si="4"/>
-        <v>108.57365134801012</v>
-      </c>
-      <c r="H90" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J90" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I90" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D91" s="1" t="s">
         <v>73</v>
       </c>
@@ -7390,24 +7042,20 @@
         <v>2033</v>
       </c>
       <c r="F91" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>107.50918197181177</v>
       </c>
-      <c r="G91" s="9">
-        <f t="shared" si="4"/>
-        <v>107.50918197181177</v>
-      </c>
-      <c r="H91" s="8" t="s">
+      <c r="G91" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J91" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I91" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D92" s="1" t="s">
         <v>73</v>
       </c>
@@ -7415,24 +7063,20 @@
         <v>2034</v>
       </c>
       <c r="F92" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>106.46293332514962</v>
       </c>
-      <c r="G92" s="9">
-        <f t="shared" si="4"/>
-        <v>106.46293332514962</v>
-      </c>
-      <c r="H92" s="8" t="s">
+      <c r="G92" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J92" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I92" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D93" s="1" t="s">
         <v>73</v>
       </c>
@@ -7440,24 +7084,20 @@
         <v>2035</v>
       </c>
       <c r="F93" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>105.37309921224487</v>
       </c>
-      <c r="G93" s="9">
-        <f t="shared" si="4"/>
-        <v>105.37309921224487</v>
-      </c>
-      <c r="H93" s="8" t="s">
+      <c r="G93" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J93" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I93" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D94" s="1" t="s">
         <v>73</v>
       </c>
@@ -7465,24 +7105,20 @@
         <v>2036</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>104.26749833554788</v>
       </c>
-      <c r="G94" s="9">
-        <f t="shared" si="4"/>
-        <v>104.26749833554788</v>
-      </c>
-      <c r="H94" s="8" t="s">
+      <c r="G94" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J94" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I94" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D95" s="1" t="s">
         <v>73</v>
       </c>
@@ -7490,24 +7126,20 @@
         <v>2037</v>
       </c>
       <c r="F95" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>103.1450162587365</v>
       </c>
-      <c r="G95" s="9">
-        <f t="shared" si="4"/>
-        <v>103.1450162587365</v>
-      </c>
-      <c r="H95" s="8" t="s">
+      <c r="G95" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="H95" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J95" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I95" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D96" s="1" t="s">
         <v>73</v>
       </c>
@@ -7515,24 +7147,20 @@
         <v>2038</v>
       </c>
       <c r="F96" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>102.01713630177635</v>
       </c>
-      <c r="G96" s="9">
-        <f t="shared" si="4"/>
-        <v>102.01713630177635</v>
-      </c>
-      <c r="H96" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="H96" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J96" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I96" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="1" t="s">
         <v>73</v>
       </c>
@@ -7540,24 +7168,20 @@
         <v>2039</v>
       </c>
       <c r="F97" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100.85666552681393</v>
       </c>
-      <c r="G97" s="9">
-        <f t="shared" si="4"/>
-        <v>100.85666552681393</v>
-      </c>
-      <c r="H97" s="8" t="s">
+      <c r="G97" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="H97" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J97" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I97" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D98" s="1" t="s">
         <v>73</v>
       </c>
@@ -7565,24 +7189,20 @@
         <v>2040</v>
       </c>
       <c r="F98" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>99.684506408872593</v>
       </c>
-      <c r="G98" s="9">
-        <f t="shared" si="4"/>
-        <v>99.684506408872593</v>
-      </c>
-      <c r="H98" s="8" t="s">
+      <c r="G98" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="H98" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J98" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I98" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D99" s="1" t="s">
         <v>73</v>
       </c>
@@ -7590,24 +7210,20 @@
         <v>2045</v>
       </c>
       <c r="F99" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>170.73963988979949</v>
       </c>
-      <c r="G99" s="9">
-        <f t="shared" si="4"/>
-        <v>170.73963988979949</v>
-      </c>
-      <c r="H99" s="8" t="s">
+      <c r="G99" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I99" s="11" t="s">
+      <c r="H99" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J99" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I99" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D100" s="1" t="s">
         <v>73</v>
       </c>
@@ -7615,24 +7231,20 @@
         <v>2050</v>
       </c>
       <c r="F100" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>144.24052199364721</v>
       </c>
-      <c r="G100" s="9">
-        <f t="shared" si="4"/>
-        <v>144.24052199364721</v>
-      </c>
-      <c r="H100" s="8" t="s">
+      <c r="G100" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="H100" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J100" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I100" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D101" s="1" t="s">
         <v>73</v>
       </c>
@@ -7640,24 +7252,20 @@
         <v>2055</v>
       </c>
       <c r="F101" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>134.77041890705948</v>
       </c>
-      <c r="G101" s="9">
-        <f t="shared" si="4"/>
-        <v>134.77041890705948</v>
-      </c>
-      <c r="H101" s="8" t="s">
+      <c r="G101" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="H101" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J101" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I101" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D102" s="1" t="s">
         <v>73</v>
       </c>
@@ -7665,24 +7273,20 @@
         <v>2060</v>
       </c>
       <c r="F102" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125.0570287768019</v>
       </c>
-      <c r="G102" s="9">
-        <f t="shared" si="4"/>
-        <v>125.0570287768019</v>
-      </c>
-      <c r="H102" s="8" t="s">
+      <c r="G102" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I102" s="11" t="s">
+      <c r="H102" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J102" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I102" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D103" s="1" t="s">
         <v>73</v>
       </c>
@@ -7690,24 +7294,20 @@
         <v>2065</v>
       </c>
       <c r="F103" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125.52674406686971</v>
       </c>
-      <c r="G103" s="9">
-        <f t="shared" si="4"/>
-        <v>125.52674406686971</v>
-      </c>
-      <c r="H103" s="8" t="s">
+      <c r="G103" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="H103" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J103" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I103" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D104" s="1" t="s">
         <v>73</v>
       </c>
@@ -7715,24 +7315,20 @@
         <v>2070</v>
       </c>
       <c r="F104" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>124.95012745649218</v>
       </c>
-      <c r="G104" s="9">
-        <f t="shared" si="4"/>
-        <v>124.95012745649218</v>
-      </c>
-      <c r="H104" s="8" t="s">
+      <c r="G104" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="H104" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J104" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I104" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
         <v>73</v>
       </c>
@@ -7740,24 +7336,20 @@
         <v>2075</v>
       </c>
       <c r="F105" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125.45667495984314</v>
       </c>
-      <c r="G105" s="9">
-        <f t="shared" si="4"/>
-        <v>125.45667495984314</v>
-      </c>
-      <c r="H105" s="8" t="s">
+      <c r="G105" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="H105" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J105" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I105" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D106" s="1" t="s">
         <v>73</v>
       </c>
@@ -7765,24 +7357,20 @@
         <v>2080</v>
       </c>
       <c r="F106" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>126.40434741592387</v>
       </c>
-      <c r="G106" s="9">
-        <f t="shared" si="4"/>
-        <v>126.40434741592387</v>
-      </c>
-      <c r="H106" s="8" t="s">
+      <c r="G106" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I106" s="11" t="s">
+      <c r="H106" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J106" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I106" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D107" s="1" t="s">
         <v>73</v>
       </c>
@@ -7790,24 +7378,20 @@
         <v>2085</v>
       </c>
       <c r="F107" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>126.65940700266059</v>
       </c>
-      <c r="G107" s="9">
-        <f t="shared" si="4"/>
-        <v>126.65940700266059</v>
-      </c>
-      <c r="H107" s="8" t="s">
+      <c r="G107" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="H107" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J107" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I107" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
         <v>73</v>
       </c>
@@ -7815,24 +7399,20 @@
         <v>2090</v>
       </c>
       <c r="F108" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>125.70528832857735</v>
       </c>
-      <c r="G108" s="9">
-        <f t="shared" si="4"/>
-        <v>125.70528832857735</v>
-      </c>
-      <c r="H108" s="8" t="s">
+      <c r="G108" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="H108" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J108" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I108" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D109" s="1" t="s">
         <v>73</v>
       </c>
@@ -7840,24 +7420,20 @@
         <v>2095</v>
       </c>
       <c r="F109" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>123.4487141585752</v>
       </c>
-      <c r="G109" s="9">
-        <f t="shared" si="4"/>
-        <v>123.4487141585752</v>
-      </c>
-      <c r="H109" s="8" t="s">
+      <c r="G109" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="H109" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J109" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I109" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D110" s="1" t="s">
         <v>73</v>
       </c>
@@ -7865,20 +7441,16 @@
         <v>2100</v>
       </c>
       <c r="F110" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>120.64007290651311</v>
       </c>
-      <c r="G110" s="9">
-        <f t="shared" si="4"/>
-        <v>120.64007290651311</v>
-      </c>
-      <c r="H110" s="8" t="s">
+      <c r="G110" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I110" s="11" t="s">
+      <c r="H110" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="J110" s="20" t="s">
+      <c r="I110" s="20" t="s">
         <v>63</v>
       </c>
     </row>
